--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>0.4235526809466261</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.003756253906252</v>
+        <v>1.652713177926435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>-0.1474887606676356</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.7898296796019721</v>
+        <v>1.265019766896436</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>-0.5718076928962645</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>1.446222811659204</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>2.015050062500001</v>
+        <v>0.4618648366506939</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>1.218009596270675</v>
+        <v>0.337821977117625</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>1.483328631749625</v>
+        <v>1.858657482882586</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>0.3486139762225005</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.7244770676386514</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>2.015050062499957</v>
+        <v>-2.340608900318997</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.5544720893820188</v>
+        <v>-1.890773121057054</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.009536760933671</v>
+        <v>-3.246097549514837</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.1384957661262898</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.147982493328215</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.8024032015999882</v>
+        <v>1.659950937631938</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.173294700162031</v>
+        <v>1.89156560755015</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.1299540917866</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.566479473280147</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>1.1299540917866</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.205410808099949</v>
+        <v>2.497560574935442</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180518841971723</v>
+        <v>1.113165545862094</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.255685894995295</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.7307568962936939</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.9023765013830509</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.8024032016000104</v>
+        <v>1.029202372425875</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9276272455014611</v>
+        <v>1.070385798714391</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.129954091786578</v>
+        <v>3.238605209599998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.818818812164257</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.281673763033231</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.609625625599986</v>
+        <v>0.7004752402133052</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.265990289415564</v>
+        <v>1.384186838979806</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.715659375508571</v>
+        <v>2.777885851461503</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.9180054319587239</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.578526694644333</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.407367165006268</v>
+        <v>2.577405783391451</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.642047742738506</v>
+        <v>2.349355943833098</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.622239894125022</v>
+        <v>2.436566844071941</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.984684278296656</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.757626649490707</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.915091024399063</v>
+        <v>2.047428048848832</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.66194179127146</v>
+        <v>1.786425635558397</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.742838626590171</v>
+        <v>1.694971351092267</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.755995812646982</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.539873306369466</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.40736716500629</v>
+        <v>1.55296524673576</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.609733807897773</v>
+        <v>1.331333081915509</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.704593001969767</v>
+        <v>1.216098605743365</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.946965557828384</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.641178243814534</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.609625625599986</v>
+        <v>0.2326081529569146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.641178243814534</v>
+        <v>0.522170282006873</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.609625625599986</v>
+        <v>0.03619160485377471</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.641178243814534</v>
+        <v>1.282262557986447</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.609625625599986</v>
+        <v>1.784618024189011</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.641178243814534</v>
+        <v>1.238324979098038</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.609625625599986</v>
+        <v>1.281608622679231</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.06432145354225</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.356361481481216</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.205410808099971</v>
+        <v>-0.6993904531539141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.721643971687081</v>
+        <v>0.5141202228481356</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.177559070630508</v>
+        <v>0.8660061896410332</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.082021219665874</v>
+        <v>2.247109253368285</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.9868670122340828</v>
+        <v>4.887093273600018</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.183163144818633</v>
+        <v>1.254519294658696</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.309601741335408</v>
+        <v>0.5495555957892417</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.361817904277696</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.409901305083471</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.5611770979841113</v>
+        <v>1.656460003703519</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.0490875891421938</v>
+        <v>0.631197969589059</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.3994003998998519</v>
+        <v>0.07482640125562323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.662861831460751</v>
+        <v>-4.247034401476801</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>18.77378552013942</v>
+        <v>-12.1986023424</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.662861831460751</v>
+        <v>-5.210209911466245</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.569434565498196</v>
+        <v>17.92194299430632</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.352425014431304</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-4.885857050630149</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-9.259896422399994</v>
+        <v>-0.9164352768978534</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.6257051103596201</v>
+        <v>-5.694190915127639</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>13.05091907089615</v>
+        <v>-9.259896422400004</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.1010915562932313</v>
+        <v>-2.608215948579529</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>23.91418062140293</v>
+        <v>12.1815000816919</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.1010915562932313</v>
+        <v>-1.897775264882628</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.978571099672367</v>
+        <v>22.87548668341248</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.761645650979182</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>5.356290905359096</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.694448575331275</v>
+        <v>2.211960525313206</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>6.244438355648096</v>
+        <v>3.750424156851184</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>6.015149951001053</v>
+        <v>1.694448575331275</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>5.793673192389748</v>
+        <v>4.863085601670813</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.381818530009137</v>
+        <v>5.870037016039187</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>5.793673192389748</v>
+        <v>4.787836378515364</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.4965892650700465</v>
+        <v>0.1238442324989597</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.20787683103745</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.8545278866125439</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-2.927305789734236</v>
+        <v>0.1996286546173343</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.4907771313788944</v>
+        <v>-1.15781484339289</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-1.122464670489876</v>
+        <v>-2.927305789734247</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3788601787194756</v>
+        <v>-1.44371442952016</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.3381127962866826</v>
+        <v>-1.24582517146522</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3788601787194756</v>
+        <v>-0.49899188013105</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.1377972028989261</v>
+        <v>0.5969365658798464</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.9008525709169546</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.1077658845133556</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>0.4006004000999486</v>
+        <v>-0.01592365107300209</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.03269760481372508</v>
+        <v>0.3201030582971054</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.02498126405197088</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.05771202657300911</v>
+        <v>0.06625622369935691</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.3504753125937121</v>
+        <v>-0.1040473946152809</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.05771202657300911</v>
+        <v>0.5084754301873051</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.9033454606159452</v>
+        <v>0.2859187804512109</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.2738544794132824</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.571023952793448</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.4005912323909122</v>
+        <v>0.7861875694807674</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6464942014291264</v>
+        <v>0.3933715771899493</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.7773218361398104</v>
+        <v>0.4005912323909122</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6062046309774693</v>
+        <v>0.9919038146506631</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2550994092664016</v>
+        <v>0.8749339604052775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>0.9584581489103794</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.3060804787961446</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-5.210209911466245</v>
+        <v>-9.171727975571509</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>17.92194299430632</v>
+        <v>-35.38741355739603</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.9164352768978534</v>
+        <v>31.54369540926341</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-5.694190915127639</v>
+        <v>-7.006249401853559</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-9.259896422400004</v>
+        <v>-12.66856409363487</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-2.608215948579529</v>
+        <v>-8.773175314851734</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>12.1815000816919</v>
+        <v>-19.76612614777711</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.897775264882628</v>
+        <v>-2.664090177971845</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>22.87548668341248</v>
+        <v>11.21653887140448</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.211960525313206</v>
+        <v>22.41808675646528</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.750424156851184</v>
+        <v>0.4216558051304942</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.694448575331275</v>
+        <v>-6.821105596638944</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.863085601670813</v>
+        <v>3.555435198576862</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>5.870037016039187</v>
+        <v>-0.5376914776811126</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.787836378515364</v>
+        <v>5.042810166847089</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1238442324989597</v>
+        <v>3.311762715735989</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.1996286546173343</v>
+        <v>4.121778551214828</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.15781484339289</v>
+        <v>-1.548915741813683</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-2.927305789734247</v>
+        <v>-3.955662492975165</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.44371442952016</v>
+        <v>-2.16280394131193</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-1.24582517146522</v>
+        <v>-4.829433539906846</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.49899188013105</v>
+        <v>-0.5369231962161769</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.5969365658798464</v>
+        <v>0.09950561885601061</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.01592365107300209</v>
+        <v>-0.9756765446553795</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.3201030582971054</v>
+        <v>0.5260208614076722</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.4006004000999486</v>
+        <v>0.9503229429644211</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.06625622369935691</v>
+        <v>-0.2443666741802408</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.1040473946152809</v>
+        <v>-1.649278360889672</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.5084754301873051</v>
+        <v>0.4276194584983628</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.2859187804512109</v>
+        <v>-0.7585430378855507</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.7861875694807674</v>
+        <v>0.7075860014263302</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.3933715771899493</v>
+        <v>0.3683024421824665</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.4005912323909122</v>
+        <v>0.333800292656794</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.9919038146506631</v>
+        <v>1.211873835667365</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8749339604052775</v>
+        <v>1.973770215219273</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>0.9584581489103794</v>
+        <v>0.9621815008244994</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.3060804787961446</v>
+        <v>0.3540813801726328</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>0.4235526809466261</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.652713177926435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>-0.1474887606676356</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,9 +447,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>-0.5718076928962645</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.3486139762225005</v>
+        <v>0.348613976222456</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.1384957661262898</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.89156560755015</v>
+        <v>1.891565607550105</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.609625625599986</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.566479473280147</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>2.497560574935442</v>
+        <v>2.49756057493542</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +564,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.113165545862094</v>
+        <v>1.113165545862116</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.609625625600009</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.7307568962936939</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -616,7 +604,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.238605209599998</v>
+        <v>3.238605209600021</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.818818812164257</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.384186838979806</v>
+        <v>1.384186838979828</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.777885851461503</v>
+        <v>2.777885851461526</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,7 +666,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>2.349355943833098</v>
+        <v>2.349355943833076</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -695,13 +683,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.984684278296656</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>2.047428048848832</v>
+        <v>2.047428048848809</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.786425635558397</v>
+        <v>1.78642563555842</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -735,7 +723,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.55296524673576</v>
+        <v>1.552965246735782</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -752,7 +740,7 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.216098605743365</v>
+        <v>1.216098605743343</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,7 +757,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>0.2326081529569146</v>
+        <v>0.232608152956959</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.522170282006873</v>
+        <v>0.5221702820068952</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -797,13 +785,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.282262557986447</v>
+        <v>1.282262557986469</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.784618024189011</v>
+        <v>1.784618024189033</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.238324979098038</v>
+        <v>1.238324979098082</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.281608622679231</v>
+        <v>1.281608622679209</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,7 +819,7 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>1.06432145354225</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -854,7 +842,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.8660061896410332</v>
+        <v>0.8660061896410554</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,7 +853,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.247109253368285</v>
+        <v>2.247109253368307</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.5495555957892417</v>
+        <v>0.5495555957892195</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>1.361817904277696</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.631197969589059</v>
+        <v>0.6311979695890368</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.07482640125562323</v>
+        <v>0.07482640125564544</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.247034401476801</v>
+        <v>-4.247034401476779</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-12.1986023424</v>
+        <v>-12.19860234240002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +938,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.171727975571509</v>
+        <v>-9.171727975571519</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-4.352425014431304</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>31.54369540926341</v>
+        <v>31.54369540926345</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-7.006249401853559</v>
+        <v>-7.006249401853603</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-12.66856409363487</v>
+        <v>-12.66856409363488</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-2.664090177971845</v>
+        <v>-2.664090177971856</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>11.21653887140448</v>
+        <v>11.21653887140452</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1029,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>22.41808675646528</v>
+        <v>22.41808675646531</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1040,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.4216558051304942</v>
+        <v>0.421655805130472</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-6.821105596638944</v>
+        <v>-6.821105596638954</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1075,7 +1063,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.5376914776811126</v>
+        <v>-0.5376914776811237</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>5.042810166847089</v>
+        <v>5.042810166847067</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.548915741813683</v>
+        <v>-1.548915741813695</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-3.955662492975165</v>
+        <v>-3.955662492975198</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1143,7 +1131,7 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-4.829433539906846</v>
+        <v>-4.829433539906869</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.5369231962161769</v>
+        <v>-0.5369231962162102</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.09950561885601061</v>
+        <v>0.09950561885605502</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.9008525709169546</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.9756765446553795</v>
+        <v>-0.9756765446554017</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.9503229429644211</v>
+        <v>0.9503229429644433</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.2443666741802408</v>
+        <v>-0.244366674180263</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-1.649278360889672</v>
+        <v>-1.64927836088965</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1228,7 +1216,7 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.7585430378855507</v>
+        <v>-0.7585430378855618</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.2738544794132824</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.3683024421824665</v>
+        <v>0.3683024421824888</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.333800292656794</v>
+        <v>0.3338002926567718</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.3540813801726328</v>
+        <v>0.3540813801726106</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>0.3540813801726106</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>0.8976398032236155</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.6203510926954925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
